--- a/Обработка ПКМ.xlsx
+++ b/Обработка ПКМ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F24BD2-A66C-49B8-919A-786C5989EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F38B7B-262D-43A2-958A-7421D45C11A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="D1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Обработка ПКМ.xlsx
+++ b/Обработка ПКМ.xlsx
@@ -1,39 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NaumovVY\Documents\GitHub\GZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maximov\py\Github\GZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F38B7B-262D-43A2-958A-7421D45C11A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43547411-CF39-4893-83B4-BA7ADBF9E5EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="10x15x8" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Температура воздуха</t>
   </si>
@@ -57,6 +53,57 @@
   </si>
   <si>
     <t>Объем общий</t>
+  </si>
+  <si>
+    <t>T air</t>
+  </si>
+  <si>
+    <t>n_GTU</t>
+  </si>
+  <si>
+    <t>GTU</t>
+  </si>
+  <si>
+    <t>Turbine</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Заряд</t>
+  </si>
+  <si>
+    <t>Разряд</t>
+  </si>
+  <si>
+    <t>SGgtu_comp</t>
+  </si>
+  <si>
+    <t>SGgtu_turb</t>
+  </si>
+  <si>
+    <t>КПД эд</t>
+  </si>
+  <si>
+    <t>КПД мех</t>
+  </si>
+  <si>
+    <t>КПД эг</t>
+  </si>
+  <si>
+    <t>N ПГУ заряд</t>
+  </si>
+  <si>
+    <t>N ПГУ разряд</t>
+  </si>
+  <si>
+    <t>N пиковой ГТУ</t>
   </si>
 </sst>
 </file>
@@ -64,9 +111,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +128,19 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -98,16 +158,184 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -123,6 +351,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="all_result"/>
+      <sheetName val="gas_streams_zaryad"/>
+      <sheetName val="water_streams_zaryad"/>
+      <sheetName val="syngas_streams_zaryad"/>
+      <sheetName val="electric_zaryad"/>
+      <sheetName val="heaters_zaryad"/>
+      <sheetName val="accumulation_zaryad"/>
+      <sheetName val="gas_streams_razryad"/>
+      <sheetName val="water_streams_razryad"/>
+      <sheetName val="syngas_streams_razryad"/>
+      <sheetName val="electric_razryad"/>
+      <sheetName val="heaters_razryad"/>
+      <sheetName val="accumulation_razryad"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="C2">
+            <v>1.834831695570859</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>131.72117679210089</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>6.2293703198358763</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>46.372497401570882</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>4.6172064822706187E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="2">
+          <cell r="C2">
+            <v>0.69181222985894564</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>164.30459999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>6.2985051603460569</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>72.581643072908406</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>0.15112814549100101</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>47628.093388138521</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>71410.610500168463</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,20 +715,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:M18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>0.95</v>
+      </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
@@ -409,17 +742,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.99</v>
+      </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.98</v>
+      </c>
       <c r="D3">
         <v>-10</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>3</v>
       </c>
@@ -427,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -435,7 +780,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -444,7 +789,7 @@
         <v>1178.0972450961724</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -452,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -461,11 +806,354 @@
         <v>9424.7779607693792</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="M18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A796D5D9-FB45-439F-B4E0-95CA08E16843}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="10.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="9" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>-29</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H11" si="0">C3+D3*$U$2*$U$3-E3/$U$1/$U$2-F3-G3/$U$1/$U$2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="Q3:Q8" si="1">C3+D3*$U$2*$U$3-E3/$U$1/$U$2-F3-G3/$U$1/$U$2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" ref="R3:R8" si="2">(-O3/1000/$U$2+P3/1000)*$U$2*$U$3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>-25</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>-20</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>-15</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>-10</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>-5</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <f>[1]electric_zaryad!$C$5</f>
+        <v>131.72117679210089</v>
+      </c>
+      <c r="D9" s="9">
+        <f>[1]electric_zaryad!$B$7</f>
+        <v>46.372497401570882</v>
+      </c>
+      <c r="E9" s="9">
+        <f>[1]electric_zaryad!$C$12</f>
+        <v>4.6172064822706187E-2</v>
+      </c>
+      <c r="F9" s="9">
+        <f>[1]electric_zaryad!$C$6</f>
+        <v>6.2293703198358763</v>
+      </c>
+      <c r="G9" s="10">
+        <f>[1]electric_zaryad!$C$2</f>
+        <v>1.834831695570859</v>
+      </c>
+      <c r="H9" s="8">
+        <f>C9+D9*$U$2*$U$3-E9/$U$1/$U$2-F9-G9/$U$1/$U$2</f>
+        <v>168.48239945297715</v>
+      </c>
+      <c r="J9" s="9">
+        <f>[1]electric_razryad!$C$5</f>
+        <v>164.30459999999999</v>
+      </c>
+      <c r="K9" s="9">
+        <f>[1]electric_razryad!$B$7</f>
+        <v>72.581643072908406</v>
+      </c>
+      <c r="L9" s="9">
+        <f>[1]electric_razryad!$C$12</f>
+        <v>0.15112814549100101</v>
+      </c>
+      <c r="M9" s="9">
+        <f>[1]electric_razryad!$C$6</f>
+        <v>6.2985051603460569</v>
+      </c>
+      <c r="N9" s="9">
+        <f>[1]electric_razryad!$C$2</f>
+        <v>0.69181222985894564</v>
+      </c>
+      <c r="O9" s="9">
+        <f>[1]electric_razryad!$B$13</f>
+        <v>47628.093388138521</v>
+      </c>
+      <c r="P9" s="9">
+        <f>[1]electric_razryad!$B$14</f>
+        <v>71410.610500168463</v>
+      </c>
+      <c r="Q9" s="8">
+        <f>J9+K9*$U$2*$U$3-L9/$U$1/$U$2-M9-N9/$U$1/$U$2</f>
+        <v>227.52853660730977</v>
+      </c>
+      <c r="R9" s="11">
+        <f>(-O9/1000/$U$2+P9/1000)*$U$2*$U$3</f>
+        <v>22.607042786887686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
+        <f>J10+K10*$U$2*$U$3-L10/$U$1/$U$2-M10-N10/$U$1/$U$2</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <f t="shared" ref="R10:R11" si="3">(-O10/1000/$U$2+P10/1000)*$U$2*$U$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>C11+D11*$U$2*$U$3-E11/$U$1/$U$2-F11-G11/$U$1/$U$2</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>